--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/PhepNamTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/PhepNamTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Mã Nhân Viên</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Năm</t>
-  </si>
-  <si>
-    <t>Số Tiền Chi Trả Phép khi nghỉ việc</t>
-  </si>
-  <si>
-    <t>Mức Lương Thanh Toán</t>
   </si>
   <si>
     <r>
@@ -458,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,11 +464,9 @@
     <col min="2" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -485,19 +477,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -512,12 +498,6 @@
       </c>
       <c r="E2" s="2">
         <v>45230</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100000</v>
       </c>
     </row>
   </sheetData>
